--- a/data/pca/factorExposure/factorExposure_2017-05-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02260238107863427</v>
+        <v>0.00927476463108296</v>
       </c>
       <c r="C2">
-        <v>-0.008297185571635855</v>
+        <v>-0.04277369520423246</v>
       </c>
       <c r="D2">
-        <v>0.02964688812017666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02967446666769404</v>
+      </c>
+      <c r="E2">
+        <v>0.0367903777663201</v>
+      </c>
+      <c r="F2">
+        <v>0.007245842576281076</v>
+      </c>
+      <c r="G2">
+        <v>0.0946500727406962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01901782149775929</v>
+        <v>0.04286555230559547</v>
       </c>
       <c r="C3">
-        <v>0.01910700621433339</v>
+        <v>-0.1026252254432129</v>
       </c>
       <c r="D3">
-        <v>0.1057547156373747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01813847197467975</v>
+      </c>
+      <c r="E3">
+        <v>0.1039431551719433</v>
+      </c>
+      <c r="F3">
+        <v>-0.0008930466321977094</v>
+      </c>
+      <c r="G3">
+        <v>0.192211857360828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0249323765378619</v>
+        <v>0.05517157395023927</v>
       </c>
       <c r="C4">
-        <v>0.000964838143349614</v>
+        <v>-0.06780250262117507</v>
       </c>
       <c r="D4">
-        <v>0.08525338453007353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02436589987588665</v>
+      </c>
+      <c r="E4">
+        <v>0.02961563225271144</v>
+      </c>
+      <c r="F4">
+        <v>0.008644903074833239</v>
+      </c>
+      <c r="G4">
+        <v>0.1000867141003866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01275310765863501</v>
+        <v>0.03660880809190355</v>
       </c>
       <c r="C6">
-        <v>-0.01082681141923821</v>
+        <v>-0.05248100502873754</v>
       </c>
       <c r="D6">
-        <v>0.07998784847660684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01675063561605743</v>
+      </c>
+      <c r="E6">
+        <v>0.03390867456490987</v>
+      </c>
+      <c r="F6">
+        <v>0.00646129965266783</v>
+      </c>
+      <c r="G6">
+        <v>0.08188058105153739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0112934127971957</v>
+        <v>0.02079556803860017</v>
       </c>
       <c r="C7">
-        <v>-0.002154512920227383</v>
+        <v>-0.03930600723160205</v>
       </c>
       <c r="D7">
-        <v>0.03770009090004112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01366056869658714</v>
+      </c>
+      <c r="E7">
+        <v>0.00386231374400938</v>
+      </c>
+      <c r="F7">
+        <v>-0.00448291353140452</v>
+      </c>
+      <c r="G7">
+        <v>0.1177390427434888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0002681844264574834</v>
+        <v>0.003450863675999925</v>
       </c>
       <c r="C8">
-        <v>-0.001699013425028717</v>
+        <v>-0.02460721397509022</v>
       </c>
       <c r="D8">
-        <v>0.002895262293300701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003896786767715751</v>
+      </c>
+      <c r="E8">
+        <v>0.02754029767095227</v>
+      </c>
+      <c r="F8">
+        <v>0.005584458807092301</v>
+      </c>
+      <c r="G8">
+        <v>0.06994360033891397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01697879807258024</v>
+        <v>0.03318742132023603</v>
       </c>
       <c r="C9">
-        <v>0.003182000491717631</v>
+        <v>-0.04863146816844311</v>
       </c>
       <c r="D9">
-        <v>0.06114005476059466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01644907315758302</v>
+      </c>
+      <c r="E9">
+        <v>0.01959790722028832</v>
+      </c>
+      <c r="F9">
+        <v>0.006278805218927747</v>
+      </c>
+      <c r="G9">
+        <v>0.09947924495017398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.05840197921012021</v>
+        <v>0.09872094612537588</v>
       </c>
       <c r="C10">
-        <v>0.1788855754668692</v>
+        <v>0.1819394174823106</v>
       </c>
       <c r="D10">
-        <v>-0.09192244273253729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01512333012675475</v>
+      </c>
+      <c r="E10">
+        <v>0.021167755301406</v>
+      </c>
+      <c r="F10">
+        <v>-0.02342045505534955</v>
+      </c>
+      <c r="G10">
+        <v>0.05770630461179962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0007753653920257362</v>
+        <v>0.03489803139428311</v>
       </c>
       <c r="C11">
-        <v>-0.005631744242837374</v>
+        <v>-0.05423752756607138</v>
       </c>
       <c r="D11">
-        <v>0.05560683597541426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002230284069991406</v>
+      </c>
+      <c r="E11">
+        <v>0.01484950813643451</v>
+      </c>
+      <c r="F11">
+        <v>0.01985410462728632</v>
+      </c>
+      <c r="G11">
+        <v>0.09127678587658494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004765738149088847</v>
+        <v>0.03667871028873216</v>
       </c>
       <c r="C12">
-        <v>-0.003673581359504657</v>
+        <v>-0.04889219346736622</v>
       </c>
       <c r="D12">
-        <v>0.04949446342846319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006275792830562483</v>
+      </c>
+      <c r="E12">
+        <v>0.006349735533509251</v>
+      </c>
+      <c r="F12">
+        <v>0.001292594020849424</v>
+      </c>
+      <c r="G12">
+        <v>0.0835366821265062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02396774670691913</v>
+        <v>0.0162311315131709</v>
       </c>
       <c r="C13">
-        <v>0.002561278777333445</v>
+        <v>-0.04136923229834751</v>
       </c>
       <c r="D13">
-        <v>0.03769040355864064</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02611402154836633</v>
+      </c>
+      <c r="E13">
+        <v>0.03420088746729533</v>
+      </c>
+      <c r="F13">
+        <v>0.004497944847781927</v>
+      </c>
+      <c r="G13">
+        <v>0.1328960877013237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009829242345403267</v>
+        <v>0.0088798814743063</v>
       </c>
       <c r="C14">
-        <v>0.006522026863749178</v>
+        <v>-0.02865893977840104</v>
       </c>
       <c r="D14">
-        <v>0.01686297994889249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.00988469672921701</v>
+      </c>
+      <c r="E14">
+        <v>0.005908608243938862</v>
+      </c>
+      <c r="F14">
+        <v>-0.009301590062095988</v>
+      </c>
+      <c r="G14">
+        <v>0.1018985970015931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002167393918992008</v>
+        <v>0.03341316266899577</v>
       </c>
       <c r="C16">
-        <v>0.003644418601932702</v>
+        <v>-0.04724026049356134</v>
       </c>
       <c r="D16">
-        <v>0.0447961452754683</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.001793673356150164</v>
+      </c>
+      <c r="E16">
+        <v>0.01317240338220219</v>
+      </c>
+      <c r="F16">
+        <v>0.001941348167732628</v>
+      </c>
+      <c r="G16">
+        <v>0.09240871905601634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01338860261253885</v>
+        <v>0.02172948607410471</v>
       </c>
       <c r="C19">
-        <v>-0.001733692217508911</v>
+        <v>-0.05411738518370419</v>
       </c>
       <c r="D19">
-        <v>0.04894921700962037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01871045641712287</v>
+      </c>
+      <c r="E19">
+        <v>0.07370752786735771</v>
+      </c>
+      <c r="F19">
+        <v>0.01752732538754035</v>
+      </c>
+      <c r="G19">
+        <v>0.1344828724083052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01050368190176681</v>
+        <v>0.01535303742051419</v>
       </c>
       <c r="C20">
-        <v>-0.002672814493375419</v>
+        <v>-0.04002206050266948</v>
       </c>
       <c r="D20">
-        <v>0.03525991545480799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01404781776809219</v>
+      </c>
+      <c r="E20">
+        <v>0.03415947020880445</v>
+      </c>
+      <c r="F20">
+        <v>-0.01463318089288343</v>
+      </c>
+      <c r="G20">
+        <v>0.1096639956236113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0158025117889768</v>
+        <v>0.0127258283140616</v>
       </c>
       <c r="C21">
-        <v>0.00453611828516557</v>
+        <v>-0.03968503526163591</v>
       </c>
       <c r="D21">
-        <v>0.03533121053315962</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01873615839937556</v>
+      </c>
+      <c r="E21">
+        <v>0.04889563533730381</v>
+      </c>
+      <c r="F21">
+        <v>-0.001227677501616163</v>
+      </c>
+      <c r="G21">
+        <v>0.1303517662708615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001060464551115126</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0002656356635089049</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0004344496540710415</v>
+      </c>
+      <c r="E22">
+        <v>0.002064602486622637</v>
+      </c>
+      <c r="F22">
+        <v>0.001118060144482687</v>
+      </c>
+      <c r="G22">
+        <v>0.003296109735755069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001064816532946429</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0002652452033321228</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0004345579272742117</v>
+      </c>
+      <c r="E23">
+        <v>0.002070600121583769</v>
+      </c>
+      <c r="F23">
+        <v>0.001116095498019868</v>
+      </c>
+      <c r="G23">
+        <v>0.003310127821620124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.002268885261445097</v>
+        <v>0.02899727641632404</v>
       </c>
       <c r="C24">
-        <v>-0.009766798670238695</v>
+        <v>-0.05164411423675105</v>
       </c>
       <c r="D24">
-        <v>0.04968471509934922</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007024319216889148</v>
+      </c>
+      <c r="E24">
+        <v>0.00958685383394719</v>
+      </c>
+      <c r="F24">
+        <v>0.01204139378880006</v>
+      </c>
+      <c r="G24">
+        <v>0.0915840911967663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01284362565361164</v>
+        <v>0.04324716064630467</v>
       </c>
       <c r="C25">
-        <v>0.003641055241003309</v>
+        <v>-0.0588396103852727</v>
       </c>
       <c r="D25">
-        <v>0.05966801657115028</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0110625099671677</v>
+      </c>
+      <c r="E25">
+        <v>0.002135895609182455</v>
+      </c>
+      <c r="F25">
+        <v>0.005652903095241861</v>
+      </c>
+      <c r="G25">
+        <v>0.102174119692097</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02290300432576249</v>
+        <v>0.01433659974329272</v>
       </c>
       <c r="C26">
-        <v>-0.001682043357754608</v>
+        <v>-0.0112486842686964</v>
       </c>
       <c r="D26">
-        <v>0.001984587266653779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02398996979873767</v>
+      </c>
+      <c r="E26">
+        <v>0.009372860549034344</v>
+      </c>
+      <c r="F26">
+        <v>-0.0102941578187675</v>
+      </c>
+      <c r="G26">
+        <v>0.08163534124118937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09149158659824796</v>
+        <v>0.1259149173348136</v>
       </c>
       <c r="C28">
-        <v>0.2342631352663474</v>
+        <v>0.2383948966584862</v>
       </c>
       <c r="D28">
-        <v>-0.1139572396137473</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.005977860663397704</v>
+      </c>
+      <c r="E28">
+        <v>0.009419832413532779</v>
+      </c>
+      <c r="F28">
+        <v>-0.01740786177881302</v>
+      </c>
+      <c r="G28">
+        <v>0.04559391365616575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01113317888016076</v>
+        <v>0.009372721675367846</v>
       </c>
       <c r="C29">
-        <v>0.01092815435562765</v>
+        <v>-0.02242629648898365</v>
       </c>
       <c r="D29">
-        <v>0.0179259052107008</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.008969671416459161</v>
+      </c>
+      <c r="E29">
+        <v>0.003396247977435549</v>
+      </c>
+      <c r="F29">
+        <v>-0.0172680056224578</v>
+      </c>
+      <c r="G29">
+        <v>0.09601338515275804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0199976955793428</v>
+        <v>0.04112087237718314</v>
       </c>
       <c r="C30">
-        <v>-0.01877500050089813</v>
+        <v>-0.07107877281150528</v>
       </c>
       <c r="D30">
-        <v>0.1032285323352429</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02856174351047794</v>
+      </c>
+      <c r="E30">
+        <v>0.05390708264347253</v>
+      </c>
+      <c r="F30">
+        <v>0.04082040286538876</v>
+      </c>
+      <c r="G30">
+        <v>0.1260694198918051</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01486681227905591</v>
+        <v>0.05339845516854702</v>
       </c>
       <c r="C31">
-        <v>0.02641645775090734</v>
+        <v>-0.03771930141269129</v>
       </c>
       <c r="D31">
-        <v>0.03807376362162938</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.00368921768193568</v>
+      </c>
+      <c r="E31">
+        <v>-0.000198620211156358</v>
+      </c>
+      <c r="F31">
+        <v>-0.04159430153064547</v>
+      </c>
+      <c r="G31">
+        <v>0.1002515171762462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001433054502904851</v>
+        <v>0.002186643041389279</v>
       </c>
       <c r="C32">
-        <v>0.02041613604178568</v>
+        <v>-0.02390240239533539</v>
       </c>
       <c r="D32">
-        <v>0.002882962830053442</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.003547470910967348</v>
+      </c>
+      <c r="E32">
+        <v>0.02847687339564116</v>
+      </c>
+      <c r="F32">
+        <v>0.03670436848304046</v>
+      </c>
+      <c r="G32">
+        <v>0.07629910458208296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01286615523543881</v>
+        <v>0.02787408446944051</v>
       </c>
       <c r="C33">
-        <v>0.001782938731332998</v>
+        <v>-0.05096583171869482</v>
       </c>
       <c r="D33">
-        <v>0.04535055455656369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01550146315065015</v>
+      </c>
+      <c r="E33">
+        <v>0.04090454228383849</v>
+      </c>
+      <c r="F33">
+        <v>0.01325387322847977</v>
+      </c>
+      <c r="G33">
+        <v>0.1607995240523403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.002007597181295675</v>
+        <v>0.04053428497926533</v>
       </c>
       <c r="C34">
-        <v>0.01002725420380223</v>
+        <v>-0.06070116708156027</v>
       </c>
       <c r="D34">
-        <v>0.05672570544375775</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004782492173979453</v>
+      </c>
+      <c r="E34">
+        <v>0.004324486947696768</v>
+      </c>
+      <c r="F34">
+        <v>0.01921953764261672</v>
+      </c>
+      <c r="G34">
+        <v>0.09586094467305489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01514026602499864</v>
+        <v>0.01639817089094552</v>
       </c>
       <c r="C36">
-        <v>0.0108444803237979</v>
+        <v>-0.009366414066159784</v>
       </c>
       <c r="D36">
-        <v>0.006732913990880812</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01235779392992414</v>
+      </c>
+      <c r="E36">
+        <v>0.007927733299079651</v>
+      </c>
+      <c r="F36">
+        <v>-0.007936338588217764</v>
+      </c>
+      <c r="G36">
+        <v>0.09059363390062909</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001906823824090928</v>
+        <v>0.03200898541224326</v>
       </c>
       <c r="C38">
-        <v>0.02573536137641118</v>
+        <v>-0.03126351919392009</v>
       </c>
       <c r="D38">
-        <v>0.04981445722842537</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007618291950272069</v>
+      </c>
+      <c r="E38">
+        <v>0.004744694344744533</v>
+      </c>
+      <c r="F38">
+        <v>-0.02096666527982686</v>
+      </c>
+      <c r="G38">
+        <v>0.08566715671615972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.001105793740713751</v>
+        <v>0.03713631154780831</v>
       </c>
       <c r="C39">
-        <v>-0.03105464677109313</v>
+        <v>-0.08083192361017939</v>
       </c>
       <c r="D39">
-        <v>0.1011934996377011</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01135353643556645</v>
+      </c>
+      <c r="E39">
+        <v>0.02599654453719732</v>
+      </c>
+      <c r="F39">
+        <v>0.02175191451609128</v>
+      </c>
+      <c r="G39">
+        <v>0.08877344384065683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01289610878868383</v>
+        <v>0.01335844538410591</v>
       </c>
       <c r="C40">
-        <v>0.003637401244567537</v>
+        <v>-0.04048038266958571</v>
       </c>
       <c r="D40">
-        <v>0.04010462327885887</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01487310947549234</v>
+      </c>
+      <c r="E40">
+        <v>0.03168432259488069</v>
+      </c>
+      <c r="F40">
+        <v>-0.007975239817385136</v>
+      </c>
+      <c r="G40">
+        <v>0.1197670640739695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01048583641855094</v>
+        <v>0.02096705418529392</v>
       </c>
       <c r="C41">
-        <v>0.02038167715897359</v>
+        <v>-0.002198486016822093</v>
       </c>
       <c r="D41">
-        <v>-0.009654708072193426</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004162263689681397</v>
+      </c>
+      <c r="E41">
+        <v>0.005168253924221167</v>
+      </c>
+      <c r="F41">
+        <v>-0.01641070725506715</v>
+      </c>
+      <c r="G41">
+        <v>0.08138099388508545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08281099187180826</v>
+        <v>0.009706465161364143</v>
       </c>
       <c r="C42">
-        <v>-0.04893846912936632</v>
+        <v>-0.03347480045839916</v>
       </c>
       <c r="D42">
-        <v>0.1630525441136662</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08974303256856916</v>
+      </c>
+      <c r="E42">
+        <v>0.01595814413843989</v>
+      </c>
+      <c r="F42">
+        <v>-0.04387873921793668</v>
+      </c>
+      <c r="G42">
+        <v>-0.04482154181385579</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01086876467917502</v>
+        <v>0.03481550931360118</v>
       </c>
       <c r="C43">
-        <v>0.01902731666728351</v>
+        <v>-0.0181478369946343</v>
       </c>
       <c r="D43">
-        <v>-0.004913221125931733</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.005862692111894009</v>
+      </c>
+      <c r="E43">
+        <v>0.02075782699340915</v>
+      </c>
+      <c r="F43">
+        <v>-0.006275185070937902</v>
+      </c>
+      <c r="G43">
+        <v>0.1202233995260962</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.001482250511748641</v>
+        <v>0.01274627312222423</v>
       </c>
       <c r="C44">
-        <v>-0.006050948551735122</v>
+        <v>-0.0587799854428699</v>
       </c>
       <c r="D44">
-        <v>0.0538435605266008</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.006791294244468353</v>
+      </c>
+      <c r="E44">
+        <v>0.02120449510745337</v>
+      </c>
+      <c r="F44">
+        <v>-0.00632247654084957</v>
+      </c>
+      <c r="G44">
+        <v>0.106915779925024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01177242069357928</v>
+        <v>0.007871627294145308</v>
       </c>
       <c r="C46">
-        <v>0.004078099000267799</v>
+        <v>-0.01726039502523148</v>
       </c>
       <c r="D46">
-        <v>0.003164955325272222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01256655896445768</v>
+      </c>
+      <c r="E46">
+        <v>0.00323642849591652</v>
+      </c>
+      <c r="F46">
+        <v>-0.01666707207219626</v>
+      </c>
+      <c r="G46">
+        <v>0.1025821169301364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01045852893333047</v>
+        <v>0.07750611437651389</v>
       </c>
       <c r="C47">
-        <v>0.03325563166550503</v>
+        <v>-0.06751158937496138</v>
       </c>
       <c r="D47">
-        <v>0.07512368773485106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005101802970854146</v>
+      </c>
+      <c r="E47">
+        <v>-0.007365393417435199</v>
+      </c>
+      <c r="F47">
+        <v>-0.05619649660594407</v>
+      </c>
+      <c r="G47">
+        <v>0.08860302138167152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.006018137900253076</v>
+        <v>0.01963919501312532</v>
       </c>
       <c r="C48">
-        <v>0.01304065277574516</v>
+        <v>-0.01291096909625984</v>
       </c>
       <c r="D48">
-        <v>0.02045243495216164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.001937569171551006</v>
+      </c>
+      <c r="E48">
+        <v>0.003538116520094535</v>
+      </c>
+      <c r="F48">
+        <v>-0.02117060688219597</v>
+      </c>
+      <c r="G48">
+        <v>0.09594850861837916</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.01376658732427575</v>
+        <v>0.07545871298214647</v>
       </c>
       <c r="C50">
-        <v>0.0369603883276897</v>
+        <v>-0.07172289519756822</v>
       </c>
       <c r="D50">
-        <v>0.07129272382162569</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002363899440641513</v>
+      </c>
+      <c r="E50">
+        <v>-0.004760837990497365</v>
+      </c>
+      <c r="F50">
+        <v>-0.05693726147578373</v>
+      </c>
+      <c r="G50">
+        <v>0.09417106156587519</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008189161155499123</v>
+        <v>0.01454883255936584</v>
       </c>
       <c r="C51">
-        <v>0.005250238211616898</v>
+        <v>-0.03622268291606785</v>
       </c>
       <c r="D51">
-        <v>0.02069929433596932</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0104968169400072</v>
+      </c>
+      <c r="E51">
+        <v>0.02500704911423031</v>
+      </c>
+      <c r="F51">
+        <v>0.02265760871198708</v>
+      </c>
+      <c r="G51">
+        <v>0.1238465648193568</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01331895382134563</v>
+        <v>0.08187788144079174</v>
       </c>
       <c r="C53">
-        <v>0.03220598952845146</v>
+        <v>-0.0857175481174737</v>
       </c>
       <c r="D53">
-        <v>0.1330427956685633</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003397263095799912</v>
+      </c>
+      <c r="E53">
+        <v>-0.02643291357262621</v>
+      </c>
+      <c r="F53">
+        <v>-0.06441942175135429</v>
+      </c>
+      <c r="G53">
+        <v>0.09470983352858017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.009591619018277696</v>
+        <v>0.03270321532143505</v>
       </c>
       <c r="C54">
-        <v>0.03688377547752403</v>
+        <v>-0.01761005269533275</v>
       </c>
       <c r="D54">
-        <v>-0.001588278778867577</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001690420345437609</v>
+      </c>
+      <c r="E54">
+        <v>0.01616080182815496</v>
+      </c>
+      <c r="F54">
+        <v>-0.006847177725730933</v>
+      </c>
+      <c r="G54">
+        <v>0.1068497442562148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.006941564054859494</v>
+        <v>0.07205183016491518</v>
       </c>
       <c r="C55">
-        <v>0.01925777239894387</v>
+        <v>-0.06924259578066276</v>
       </c>
       <c r="D55">
-        <v>0.1079599523526535</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005052508802769305</v>
+      </c>
+      <c r="E55">
+        <v>-0.02500199231913952</v>
+      </c>
+      <c r="F55">
+        <v>-0.06353114760214935</v>
+      </c>
+      <c r="G55">
+        <v>0.06916966030317552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01557256235154868</v>
+        <v>0.1374133316011829</v>
       </c>
       <c r="C56">
-        <v>0.05083754283273773</v>
+        <v>-0.1085790961187195</v>
       </c>
       <c r="D56">
-        <v>0.1654833014626381</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01258523669113949</v>
+      </c>
+      <c r="E56">
+        <v>-0.0344014358144447</v>
+      </c>
+      <c r="F56">
+        <v>-0.07999191162823119</v>
+      </c>
+      <c r="G56">
+        <v>0.04639620607209791</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02421464778697286</v>
+        <v>0.0055181265393833</v>
       </c>
       <c r="C57">
-        <v>-0.001597716748668813</v>
+        <v>-0.007476746828736759</v>
       </c>
       <c r="D57">
-        <v>0.036708917382666</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02336996870812814</v>
+      </c>
+      <c r="E57">
+        <v>0.02587116139955968</v>
+      </c>
+      <c r="F57">
+        <v>0.009829330614210556</v>
+      </c>
+      <c r="G57">
+        <v>0.02760814961635324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01908329860379772</v>
+        <v>0.05194350108393113</v>
       </c>
       <c r="C58">
-        <v>0.04173647719154967</v>
+        <v>-0.05521434878246878</v>
       </c>
       <c r="D58">
-        <v>0.1577610151489769</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02136536386847348</v>
+      </c>
+      <c r="E58">
+        <v>0.9164713857799868</v>
+      </c>
+      <c r="F58">
+        <v>-0.2695102201172593</v>
+      </c>
+      <c r="G58">
+        <v>-0.2114505472117336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.0951001629409205</v>
+        <v>0.160271739880341</v>
       </c>
       <c r="C59">
-        <v>0.2574652038581663</v>
+        <v>0.2032765216766579</v>
       </c>
       <c r="D59">
-        <v>-0.09744481713096914</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01146596061358779</v>
+      </c>
+      <c r="E59">
+        <v>0.02203802318495072</v>
+      </c>
+      <c r="F59">
+        <v>-0.003414488532707884</v>
+      </c>
+      <c r="G59">
+        <v>0.03727732460664254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.08050119363312815</v>
+        <v>0.288276112332549</v>
       </c>
       <c r="C60">
-        <v>0.1612615283896407</v>
+        <v>-0.1065020545447596</v>
       </c>
       <c r="D60">
-        <v>0.140992346042214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01157060324743076</v>
+      </c>
+      <c r="E60">
+        <v>0.003695560255527192</v>
+      </c>
+      <c r="F60">
+        <v>0.3441751234882355</v>
+      </c>
+      <c r="G60">
+        <v>-0.1582009995007373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002623313588426685</v>
+        <v>0.03853537575995841</v>
       </c>
       <c r="C61">
-        <v>-0.003983501463116498</v>
+        <v>-0.06641740997733625</v>
       </c>
       <c r="D61">
-        <v>0.07414208911312482</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005215797872399665</v>
+      </c>
+      <c r="E61">
+        <v>0.0197491555870036</v>
+      </c>
+      <c r="F61">
+        <v>0.01361578517594135</v>
+      </c>
+      <c r="G61">
+        <v>0.09140330728495979</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008352742058921322</v>
+        <v>0.01553609869447362</v>
       </c>
       <c r="C63">
-        <v>0.0003360163394883588</v>
+        <v>-0.03018442469819608</v>
       </c>
       <c r="D63">
-        <v>0.02737492074813783</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008488509792023282</v>
+      </c>
+      <c r="E63">
+        <v>0.003518050773311628</v>
+      </c>
+      <c r="F63">
+        <v>-0.0201568967172372</v>
+      </c>
+      <c r="G63">
+        <v>0.09421378033716905</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01251441029976369</v>
+        <v>0.04817004816744078</v>
       </c>
       <c r="C64">
-        <v>0.01749182457409365</v>
+        <v>-0.0472675919531448</v>
       </c>
       <c r="D64">
-        <v>0.06397527970593986</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006160328867643384</v>
+      </c>
+      <c r="E64">
+        <v>0.00416021138282342</v>
+      </c>
+      <c r="F64">
+        <v>0.004440583620816015</v>
+      </c>
+      <c r="G64">
+        <v>0.09483434912422224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01993451090901714</v>
+        <v>0.07464552113901554</v>
       </c>
       <c r="C65">
-        <v>0.00163470097836418</v>
+        <v>-0.05956792140286275</v>
       </c>
       <c r="D65">
-        <v>0.1055024803657991</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01634967306903242</v>
+      </c>
+      <c r="E65">
+        <v>0.03580054437341829</v>
+      </c>
+      <c r="F65">
+        <v>0.02802604304687591</v>
+      </c>
+      <c r="G65">
+        <v>0.03474572272306223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.001902324761575305</v>
+        <v>0.051393526322739</v>
       </c>
       <c r="C66">
-        <v>-0.03332077441553118</v>
+        <v>-0.1081872963716036</v>
       </c>
       <c r="D66">
-        <v>0.134571103299353</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01139766172277453</v>
+      </c>
+      <c r="E66">
+        <v>0.03619592457299241</v>
+      </c>
+      <c r="F66">
+        <v>0.0334633547021452</v>
+      </c>
+      <c r="G66">
+        <v>0.1043607969767282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.01209725499352491</v>
+        <v>0.05499970964997768</v>
       </c>
       <c r="C67">
-        <v>0.04321989814491783</v>
+        <v>-0.03469112574259894</v>
       </c>
       <c r="D67">
-        <v>0.06833471933802009</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.00607348548370323</v>
+      </c>
+      <c r="E67">
+        <v>-0.002847368685279812</v>
+      </c>
+      <c r="F67">
+        <v>-0.01943187892181117</v>
+      </c>
+      <c r="G67">
+        <v>0.07632383175172355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1099777079493643</v>
+        <v>0.1549040791698091</v>
       </c>
       <c r="C68">
-        <v>0.2451983267279993</v>
+        <v>0.2701818288912334</v>
       </c>
       <c r="D68">
-        <v>-0.1492494865733371</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.00613427385168809</v>
+      </c>
+      <c r="E68">
+        <v>0.01483990422111925</v>
+      </c>
+      <c r="F68">
+        <v>-0.03407770848258657</v>
+      </c>
+      <c r="G68">
+        <v>0.02523368903743074</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0074973619820573</v>
+        <v>0.08254465735566906</v>
       </c>
       <c r="C69">
-        <v>0.03455562060085839</v>
+        <v>-0.07050130262695777</v>
       </c>
       <c r="D69">
-        <v>0.08048355302615191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008936014569739253</v>
+      </c>
+      <c r="E69">
+        <v>-0.0214846291938813</v>
+      </c>
+      <c r="F69">
+        <v>-0.0364630105288545</v>
+      </c>
+      <c r="G69">
+        <v>0.1022953642484258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,122 +2301,203 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.08572122754993644</v>
+        <v>0.1407124364867814</v>
       </c>
       <c r="C71">
-        <v>0.2067102063300374</v>
+        <v>0.2284357752400558</v>
       </c>
       <c r="D71">
-        <v>-0.09523725519144344</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002548468649895599</v>
+      </c>
+      <c r="E71">
+        <v>0.03673214019807978</v>
+      </c>
+      <c r="F71">
+        <v>-0.021515093882548</v>
+      </c>
+      <c r="G71">
+        <v>0.06768658190142265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002728077368522973</v>
+        <v>0.08473068090656598</v>
       </c>
       <c r="C72">
-        <v>0.02261495231782697</v>
+        <v>-0.07109625440963743</v>
       </c>
       <c r="D72">
-        <v>0.1055069619810464</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008502678329043731</v>
+      </c>
+      <c r="E72">
+        <v>-0.005069042905758041</v>
+      </c>
+      <c r="F72">
+        <v>0.04088141406706778</v>
+      </c>
+      <c r="G72">
+        <v>0.09364504229162433</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.09201389889502351</v>
+        <v>0.3753027801961591</v>
       </c>
       <c r="C73">
-        <v>0.1607879228419105</v>
+        <v>-0.1186218931924359</v>
       </c>
       <c r="D73">
-        <v>0.2691763394535244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02048385169860605</v>
+      </c>
+      <c r="E73">
+        <v>0.08337374782052701</v>
+      </c>
+      <c r="F73">
+        <v>0.5777679340543845</v>
+      </c>
+      <c r="G73">
+        <v>-0.2808596239733924</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.01451964001617109</v>
+        <v>0.1049830201565312</v>
       </c>
       <c r="C74">
-        <v>0.05029272362333845</v>
+        <v>-0.109433183845038</v>
       </c>
       <c r="D74">
-        <v>0.1788738426939821</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009462236063408781</v>
+      </c>
+      <c r="E74">
+        <v>-0.008973043347928464</v>
+      </c>
+      <c r="F74">
+        <v>-0.06934118561487131</v>
+      </c>
+      <c r="G74">
+        <v>0.08639079222146305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.03813161110256374</v>
+        <v>0.2486794158042465</v>
       </c>
       <c r="C75">
-        <v>0.1262888790104433</v>
+        <v>-0.152805075457188</v>
       </c>
       <c r="D75">
-        <v>0.3093790710716262</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03072781663759083</v>
+      </c>
+      <c r="E75">
+        <v>-0.06998391233604534</v>
+      </c>
+      <c r="F75">
+        <v>-0.1716179213546365</v>
+      </c>
+      <c r="G75">
+        <v>-0.006654502430030201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.01261970355150011</v>
+        <v>0.119066589451018</v>
       </c>
       <c r="C76">
-        <v>0.06273550835830204</v>
+        <v>-0.1089130795022123</v>
       </c>
       <c r="D76">
-        <v>0.2186960910597466</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01848821738228715</v>
+      </c>
+      <c r="E76">
+        <v>-0.03289398533985979</v>
+      </c>
+      <c r="F76">
+        <v>-0.1070350146551011</v>
+      </c>
+      <c r="G76">
+        <v>0.05888704226665147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01616701032879535</v>
+        <v>0.06794289398206546</v>
       </c>
       <c r="C77">
-        <v>0.01005409948632735</v>
+        <v>-0.05976858816057903</v>
       </c>
       <c r="D77">
-        <v>0.06892071806928193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01087116922191904</v>
+      </c>
+      <c r="E77">
+        <v>0.04420092997989444</v>
+      </c>
+      <c r="F77">
+        <v>0.009750094263291674</v>
+      </c>
+      <c r="G77">
+        <v>0.06231006902738277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004604967051712316</v>
+        <v>0.04194067403476658</v>
       </c>
       <c r="C78">
-        <v>-4.678887816679122e-05</v>
+        <v>-0.05156564190594039</v>
       </c>
       <c r="D78">
-        <v>0.05765501746271897</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.005440754242999587</v>
+      </c>
+      <c r="E78">
+        <v>0.02504456250002673</v>
+      </c>
+      <c r="F78">
+        <v>0.03614473790699772</v>
+      </c>
+      <c r="G78">
+        <v>0.09749795026818732</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1797,66 +2508,111 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.02269172316138367</v>
+        <v>0.04315042753441888</v>
       </c>
       <c r="C80">
-        <v>0.02546064510958268</v>
+        <v>-0.05086566942575756</v>
       </c>
       <c r="D80">
-        <v>0.08619673690773047</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01301625276839575</v>
+      </c>
+      <c r="E80">
+        <v>0.02407483777302473</v>
+      </c>
+      <c r="F80">
+        <v>0.01432729988721015</v>
+      </c>
+      <c r="G80">
+        <v>0.05207819154549622</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.02257520178949264</v>
+        <v>0.1372016533779412</v>
       </c>
       <c r="C81">
-        <v>0.07160109735946656</v>
+        <v>-0.09574118174320685</v>
       </c>
       <c r="D81">
-        <v>0.1787447776889591</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01501554894741222</v>
+      </c>
+      <c r="E81">
+        <v>-0.03855306284511895</v>
+      </c>
+      <c r="F81">
+        <v>-0.1274755859210991</v>
+      </c>
+      <c r="G81">
+        <v>0.02300988849146791</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1302672776855326</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07707109902938342</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.00850078003394478</v>
+      </c>
+      <c r="E82">
+        <v>-0.09760341713906931</v>
+      </c>
+      <c r="F82">
+        <v>-0.04465490708455092</v>
+      </c>
+      <c r="G82">
+        <v>0.07020242974140682</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01028988022202488</v>
+        <v>0.03636960645974629</v>
       </c>
       <c r="C83">
-        <v>0.01505070270671371</v>
+        <v>-0.0298725644901013</v>
       </c>
       <c r="D83">
-        <v>0.03565964401340167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.005896908148409871</v>
+      </c>
+      <c r="E83">
+        <v>0.030766063017952</v>
+      </c>
+      <c r="F83">
+        <v>0.03029438304482083</v>
+      </c>
+      <c r="G83">
+        <v>0.06153495441215304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.03480621431695282</v>
+        <v>0.2128284282375676</v>
       </c>
       <c r="C85">
-        <v>0.08080251706057223</v>
+        <v>-0.1464771383165013</v>
       </c>
       <c r="D85">
-        <v>0.2702482914790346</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01768557012101428</v>
+      </c>
+      <c r="E85">
+        <v>-0.1081608045085521</v>
+      </c>
+      <c r="F85">
+        <v>-0.1260416253327203</v>
+      </c>
+      <c r="G85">
+        <v>-0.06502196816348935</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009232749265100251</v>
+        <v>0.01290978769795541</v>
       </c>
       <c r="C86">
-        <v>0.007452069819205971</v>
+        <v>-0.02844379427704461</v>
       </c>
       <c r="D86">
-        <v>0.05868684550892142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01198490961365789</v>
+      </c>
+      <c r="E86">
+        <v>0.05322923610727834</v>
+      </c>
+      <c r="F86">
+        <v>0.0249521218419224</v>
+      </c>
+      <c r="G86">
+        <v>0.189978276167915</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.005114463438412087</v>
+        <v>0.02168851229626077</v>
       </c>
       <c r="C87">
-        <v>-0.01165848004329643</v>
+        <v>-0.02324536485697511</v>
       </c>
       <c r="D87">
-        <v>0.04815793428054826</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01154506420038455</v>
+      </c>
+      <c r="E87">
+        <v>0.09012053483396228</v>
+      </c>
+      <c r="F87">
+        <v>0.008412230972594541</v>
+      </c>
+      <c r="G87">
+        <v>0.1206512261192131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.0323230470537606</v>
+        <v>0.09365626512644487</v>
       </c>
       <c r="C88">
-        <v>0.0195579123485801</v>
+        <v>-0.06841069235581244</v>
       </c>
       <c r="D88">
-        <v>0.05763478898686165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02219592105543974</v>
+      </c>
+      <c r="E88">
+        <v>-0.00378817954125083</v>
+      </c>
+      <c r="F88">
+        <v>-0.02169061981194492</v>
+      </c>
+      <c r="G88">
+        <v>0.0941037795307937</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1602168675981558</v>
+        <v>0.2328802888076867</v>
       </c>
       <c r="C89">
-        <v>0.3802757554047125</v>
+        <v>0.3666830616495619</v>
       </c>
       <c r="D89">
-        <v>-0.1711624912276457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0004591511259819521</v>
+      </c>
+      <c r="E89">
+        <v>-0.0123296767838056</v>
+      </c>
+      <c r="F89">
+        <v>-0.02365963288803263</v>
+      </c>
+      <c r="G89">
+        <v>0.06877344251844886</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1270881181996169</v>
+        <v>0.2081377956222048</v>
       </c>
       <c r="C90">
-        <v>0.3081504872433735</v>
+        <v>0.3189912269356754</v>
       </c>
       <c r="D90">
-        <v>-0.1632487186667198</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.00438908997274859</v>
+      </c>
+      <c r="E90">
+        <v>-0.003420965525620571</v>
+      </c>
+      <c r="F90">
+        <v>-0.05372016515783458</v>
+      </c>
+      <c r="G90">
+        <v>0.04207498087947647</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.03009998564829765</v>
+        <v>0.186258818326419</v>
       </c>
       <c r="C91">
-        <v>0.1066396064140398</v>
+        <v>-0.1400591391742353</v>
       </c>
       <c r="D91">
-        <v>0.2277001766606287</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02214425033737606</v>
+      </c>
+      <c r="E91">
+        <v>-0.0678785184271397</v>
+      </c>
+      <c r="F91">
+        <v>-0.1445849097978199</v>
+      </c>
+      <c r="G91">
+        <v>0.0339360624594177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.09411344608459807</v>
+        <v>0.200056196664616</v>
       </c>
       <c r="C92">
-        <v>0.3096174137066489</v>
+        <v>0.2578079394520307</v>
       </c>
       <c r="D92">
-        <v>-0.05896076897395462</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03783033880375825</v>
+      </c>
+      <c r="E92">
+        <v>0.04282665231813002</v>
+      </c>
+      <c r="F92">
+        <v>-0.06414040202450638</v>
+      </c>
+      <c r="G92">
+        <v>0.1206405140355744</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1304209282447004</v>
+        <v>0.2331022163671831</v>
       </c>
       <c r="C93">
-        <v>0.3307968862882892</v>
+        <v>0.3138744216010955</v>
       </c>
       <c r="D93">
-        <v>-0.1264752809915871</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.011321828488644</v>
+      </c>
+      <c r="E93">
+        <v>0.007412434459674556</v>
+      </c>
+      <c r="F93">
+        <v>-0.04214322216284239</v>
+      </c>
+      <c r="G93">
+        <v>0.05711183370905392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.06992183525506603</v>
+        <v>0.3167399441914923</v>
       </c>
       <c r="C94">
-        <v>0.1514002075746183</v>
+        <v>-0.1784621820149102</v>
       </c>
       <c r="D94">
-        <v>0.2857393385635522</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0167110242072504</v>
+      </c>
+      <c r="E94">
+        <v>-0.2067325148824357</v>
+      </c>
+      <c r="F94">
+        <v>-0.47001941272833</v>
+      </c>
+      <c r="G94">
+        <v>-0.440238200344188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002147504495794905</v>
+        <v>0.1012091191196306</v>
       </c>
       <c r="C95">
-        <v>0.01821739049066208</v>
+        <v>-0.08950526128497331</v>
       </c>
       <c r="D95">
-        <v>0.1302977028459993</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01133670790469015</v>
+      </c>
+      <c r="E95">
+        <v>0.07657515899398941</v>
+      </c>
+      <c r="F95">
+        <v>0.1975125995127341</v>
+      </c>
+      <c r="G95">
+        <v>-0.04548472488779781</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.04395170381676673</v>
+        <v>0.1973367887114851</v>
       </c>
       <c r="C98">
-        <v>0.1399703662034862</v>
+        <v>-0.0459009092383438</v>
       </c>
       <c r="D98">
-        <v>0.1574147206246128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0135926624590672</v>
+      </c>
+      <c r="E98">
+        <v>0.07450394417019776</v>
+      </c>
+      <c r="F98">
+        <v>0.2389456726827307</v>
+      </c>
+      <c r="G98">
+        <v>-0.004489151854999447</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01091989181018243</v>
+        <v>0.009154916103918326</v>
       </c>
       <c r="C101">
-        <v>0.01081467461998752</v>
+        <v>-0.02244626959080145</v>
       </c>
       <c r="D101">
-        <v>0.01782576933723908</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.008815081305362195</v>
+      </c>
+      <c r="E101">
+        <v>0.003234683947364287</v>
+      </c>
+      <c r="F101">
+        <v>-0.01819172495051708</v>
+      </c>
+      <c r="G101">
+        <v>0.09490325730047426</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02530524590510571</v>
+        <v>0.1163148636634673</v>
       </c>
       <c r="C102">
-        <v>0.04130414862189329</v>
+        <v>-0.08360369586383462</v>
       </c>
       <c r="D102">
-        <v>0.132011894596585</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0008120877399265964</v>
+      </c>
+      <c r="E102">
+        <v>-0.03689897098886399</v>
+      </c>
+      <c r="F102">
+        <v>-0.04057328572616711</v>
+      </c>
+      <c r="G102">
+        <v>0.01785566253617811</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9207032265886317</v>
+        <v>0.02104473691423118</v>
       </c>
       <c r="C104">
-        <v>-0.3651554568661181</v>
+        <v>0.02935422456903199</v>
       </c>
       <c r="D104">
-        <v>-0.03755169542139956</v>
+        <v>0.9879287916553114</v>
+      </c>
+      <c r="E104">
+        <v>-0.04804460188280119</v>
+      </c>
+      <c r="F104">
+        <v>-0.03298669328291128</v>
+      </c>
+      <c r="G104">
+        <v>-0.03550015023241708</v>
       </c>
     </row>
   </sheetData>
